--- a/Book2026.xlsx
+++ b/Book2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\syana05012019\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487DBD85-57FE-415E-8B54-F60F7ADC6A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA1BB86-DC12-4E5C-82D2-3A4F51F9498C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="947" firstSheet="12" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="947" firstSheet="12" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="250">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -790,9 +790,6 @@
     <t>تحت حساب صيانة شهر يناير   /2026</t>
   </si>
   <si>
-    <t>تحت حساب صيانة شهر ديسمبر /2025</t>
-  </si>
-  <si>
     <t>د.عمرو</t>
   </si>
   <si>
@@ -803,6 +800,12 @@
   </si>
   <si>
     <t>تحت حساب صيانة وتسليك المجارى بالجراج</t>
+  </si>
+  <si>
+    <t>تحت حساب كهرباء شهر يناير /2026</t>
+  </si>
+  <si>
+    <t>أ/مصطفى</t>
   </si>
 </sst>
 </file>
@@ -11272,8 +11275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A2:Q105"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11367,7 +11370,7 @@
       </c>
       <c r="C4" s="53">
         <f>SUM(C6:C2000)</f>
-        <v>1075</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -11470,7 +11473,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -11491,13 +11494,13 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F9" s="8">
         <v>4</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -11523,7 +11526,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -11585,12 +11588,21 @@
       <c r="A13" s="8">
         <v>8</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="B13" s="51">
+        <v>46023</v>
+      </c>
+      <c r="C13" s="55">
+        <v>300</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="8">
+        <v>7</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -11600,12 +11612,22 @@
       <c r="A14" s="8">
         <v>9</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="51">
+        <v>46023</v>
+      </c>
+      <c r="C14" s="55">
+        <v>150</v>
+      </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -11617,11 +11639,22 @@
       <c r="A15" s="8">
         <v>10</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="55"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="B15" s="51">
+        <v>46023</v>
+      </c>
+      <c r="C15" s="55">
+        <v>150</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="8">
+        <v>3</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -11633,11 +11666,22 @@
       <c r="A16" s="8">
         <v>11</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="55"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="B16" s="51">
+        <v>46023</v>
+      </c>
+      <c r="C16" s="55">
+        <v>300</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="8">
+        <v>8</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>222</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -12664,15 +12708,15 @@
       <c r="B5" s="9"/>
       <c r="C5" s="70">
         <f>incomes!C4</f>
-        <v>1075</v>
+        <v>1975</v>
       </c>
       <c r="D5" s="71">
         <f>outcomes!C3</f>
-        <v>1250</v>
+        <v>2273</v>
       </c>
       <c r="E5" s="72">
         <f>(C3+C5)-D5</f>
-        <v>13727</v>
+        <v>13604</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -13029,8 +13073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A2:T114"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13064,7 +13108,7 @@
       </c>
       <c r="C3" s="53">
         <f>SUM(C5:C2002)</f>
-        <v>1250</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="37.5" x14ac:dyDescent="0.25">
@@ -13101,7 +13145,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S5">
         <v>4</v>
@@ -13118,7 +13162,7 @@
         <v>1100</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -13141,7 +13185,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -13157,9 +13201,15 @@
       <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="60">
+        <v>46046</v>
+      </c>
+      <c r="C8" s="55">
+        <v>1023</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>

--- a/Book2026.xlsx
+++ b/Book2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\syana05012019\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D318D1D0-66E4-45EC-8AAB-DCE982D9FADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97CFC6D-E5C1-4E45-8593-C1E986C0C3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="947" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="947" firstSheet="9" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="253">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -9261,7 +9261,7 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9319,7 +9319,7 @@
       <c r="C4" s="76"/>
       <c r="D4" s="11">
         <f>SUM(D6:D2001)</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="83">
@@ -9393,7 +9393,9 @@
       <c r="C7" s="77">
         <v>46073</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8">
+        <v>75</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="33">
         <v>75</v>
@@ -10573,7 +10575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B5" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -10679,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="51">
-        <v>46037</v>
+        <v>46034</v>
       </c>
       <c r="D6" s="73">
         <v>150</v>
@@ -11241,7 +11243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A2:Q105"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -11336,7 +11338,7 @@
       </c>
       <c r="C4" s="53">
         <f>SUM(C6:C2000)</f>
-        <v>2225</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.2">
@@ -11660,7 +11662,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="51">
-        <v>46054</v>
+        <v>46065</v>
       </c>
       <c r="C17" s="55">
         <v>250</v>
@@ -11682,12 +11684,21 @@
       <c r="A18" s="8">
         <v>13</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="B18" s="51">
+        <v>46066</v>
+      </c>
+      <c r="C18" s="55">
+        <v>75</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>223</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -12618,7 +12629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A2:N33"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -12683,7 +12694,7 @@
       <c r="B5" s="9"/>
       <c r="C5" s="70">
         <f>incomes!C4</f>
-        <v>2225</v>
+        <v>2300</v>
       </c>
       <c r="D5" s="71">
         <f>outcomes!C3</f>
@@ -12691,7 +12702,7 @@
       </c>
       <c r="E5" s="72">
         <f>(C3+C5)-D5</f>
-        <v>13354</v>
+        <v>13429</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -19440,7 +19451,7 @@
       </c>
       <c r="D7" s="26">
         <f>Apartment2!D7</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E7" s="26">
         <f>Apartment3!D7</f>
@@ -19480,7 +19491,7 @@
       </c>
       <c r="N7" s="26">
         <f>Apartment12!D7</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="O7" s="26">
         <f>Apartment13!D7</f>
@@ -20451,12 +20462,12 @@
       </c>
       <c r="C6" s="91">
         <f>Apartment2!D4</f>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D6" s="92"/>
       <c r="E6" s="94">
         <f t="shared" ref="E6:E18" si="0">D6-C6</f>
-        <v>-75</v>
+        <v>-150</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>51</v>
@@ -21646,8 +21657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView rightToLeft="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21705,7 +21716,7 @@
       <c r="C4" s="76"/>
       <c r="D4" s="83">
         <f>SUM(D6:D2001)</f>
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="83">
@@ -21776,8 +21787,12 @@
       <c r="B7" s="73">
         <v>2</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="77">
+        <v>46065</v>
+      </c>
+      <c r="D7" s="33">
+        <v>250</v>
+      </c>
       <c r="E7" s="8"/>
       <c r="F7" s="33">
         <v>250</v>

--- a/Book2026.xlsx
+++ b/Book2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\syana05012019\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97CFC6D-E5C1-4E45-8593-C1E986C0C3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B04301-B2FD-4B6B-9C78-5CA0C5B84D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="947" firstSheet="9" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="947" firstSheet="11" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="monthly_elctricity" sheetId="28" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="255">
   <si>
     <t>صفحة الإيرادات</t>
   </si>
@@ -806,6 +806,12 @@
   </si>
   <si>
     <t>تحت حساب تسليك المجارى لعامل المجارى</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة المياه عن شهر يناير /2025</t>
+  </si>
+  <si>
+    <t>تحت حساب فاتورة المياه عن شهر فبراير /2025</t>
   </si>
 </sst>
 </file>
@@ -10575,7 +10581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B5" workbookViewId="0">
+    <sheetView rightToLeft="1" topLeftCell="B5" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -12698,11 +12704,11 @@
       </c>
       <c r="D5" s="71">
         <f>outcomes!C3</f>
-        <v>2773</v>
+        <v>4633</v>
       </c>
       <c r="E5" s="72">
         <f>(C3+C5)-D5</f>
-        <v>13429</v>
+        <v>11569</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -13059,8 +13065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A2:T114"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13094,7 +13100,7 @@
       </c>
       <c r="C3" s="53">
         <f>SUM(C5:C2002)</f>
-        <v>2773</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="36" x14ac:dyDescent="0.2">
@@ -13273,9 +13279,15 @@
       <c r="A12" s="33">
         <v>8</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="60">
+        <v>46067</v>
+      </c>
+      <c r="C12" s="55">
+        <v>930</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>253</v>
+      </c>
       <c r="S12">
         <v>1</v>
       </c>
@@ -13284,9 +13296,15 @@
       <c r="A13" s="33">
         <v>9</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="60">
+        <v>46067</v>
+      </c>
+      <c r="C13" s="55">
+        <v>930</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>254</v>
+      </c>
       <c r="S13">
         <v>4</v>
       </c>
